--- a/js-moonwarriors/publish/dataResult20150227/result.xlsx
+++ b/js-moonwarriors/publish/dataResult20150227/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="17460" windowHeight="9000" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="17460" windowHeight="9000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="moonCanvas" sheetId="1" r:id="rId1"/>
@@ -135,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用moonwarriors为模板。游戏开始5秒后开始记录每帧渲染时间，15秒后，记录结束，将数据取平均值得到结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试机器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,6 +232,10 @@
   </si>
   <si>
     <t>jsb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用moonwarriors为模板。游戏开始5秒后开始记录每帧渲染时间，15秒后，记录结束，将数据取平均值得到结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4085,15 +4085,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>781050</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>4764</xdr:rowOff>
+      <xdr:rowOff>33339</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4554,8 +4554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5520,57 +5520,57 @@
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="I44" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -5580,7 +5580,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="3">
         <v>2.4902155887230999E-2</v>
@@ -5714,7 +5714,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" s="3">
         <v>0</v>
@@ -5756,8 +5756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:I41"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6528,41 +6528,41 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="3">
         <v>1.730529953917E-2</v>
@@ -6681,7 +6681,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" s="3">
         <v>0</v>
@@ -6720,8 +6720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6782,7 +6782,7 @@
         <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -6808,7 +6808,7 @@
         <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H3" t="s">
         <v>4</v>
@@ -6828,13 +6828,13 @@
         <v>1.6837499999999998E-2</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4">
         <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -6854,13 +6854,13 @@
         <v>6.9718120805369002E-2</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5">
         <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
@@ -6886,7 +6886,7 @@
         <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
@@ -6912,7 +6912,7 @@
         <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
@@ -6932,13 +6932,13 @@
         <v>1.6900662251655998E-2</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8">
         <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -6958,13 +6958,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9">
         <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -6972,7 +6972,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6984,13 +6984,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -7016,7 +7016,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15">
         <v>1.6837499999999998E-2</v>
@@ -7048,7 +7048,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <v>1.6900662251655998E-2</v>
@@ -7074,8 +7074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8135,7 +8135,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="216" x14ac:dyDescent="0.15">
@@ -8143,62 +8143,62 @@
         <v>36</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H49" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="I49" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50" s="3">
         <v>64</v>
@@ -8317,7 +8317,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F57" s="3">
         <v>204</v>
@@ -8334,7 +8334,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H58" s="3">
         <v>131</v>
@@ -8354,8 +8354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="J76" sqref="J76"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8462,7 +8462,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4" s="3">
         <v>50000</v>
@@ -8996,41 +8996,41 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3">
         <v>187</v>
@@ -9149,7 +9149,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F35" s="3">
         <v>320</v>
@@ -9179,7 +9179,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9240,7 +9240,7 @@
         <v>50000</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>4</v>
@@ -9263,7 +9263,7 @@
         <v>50000</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -9280,13 +9280,13 @@
         <v>184</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" s="3">
         <v>50000</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>4</v>
@@ -9303,13 +9303,13 @@
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" s="3">
         <v>50000</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -9332,7 +9332,7 @@
         <v>50000</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>4</v>
@@ -9355,7 +9355,7 @@
         <v>50000</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -9372,13 +9372,13 @@
         <v>205</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="3">
         <v>50000</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
@@ -9395,29 +9395,29 @@
         <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="3">
         <v>50000</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -9433,7 +9433,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="3">
         <v>184</v>
@@ -9455,7 +9455,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="3">
         <v>205</v>
